--- a/biology/Histoire de la zoologie et de la botanique/Ivan_Lepekhine/Ivan_Lepekhine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ivan_Lepekhine/Ivan_Lepekhine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Ivanovitch Lepekhine (en russe : Ива́н Ива́нович Лепёхин, qui se prononce Lepiokhine) (né le 10 septembre 1740 à Saint-Pétersbourg et mort le 6 avril 1802 dans la même ville) est un naturaliste, botaniste et explorateur russe. Son abréviation en botanique est Lepech. et en zoologie Lepechin d'après la transcription allemande de son nom: Iwan Iwanowitsch Lepechin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à l'Académie des sciences de Saint-Pétersbourg et obtient son doctorat à la faculté de médecine de Strasbourg.
 En 1768, il entame un voyage d'exploration de la région de la Volga et de la mer Caspienne, en partie avec Peter Simon Pallas, en partie seul. L'année suivante, il part pour l'Oural, où il reste cinq années. Il est nommé académicien de l'Académie impériale des sciences de Russie en 1771. Il repart pour la Sibérie en 1774 et 1775.
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1806, son nom a été commémoré dans le nom du genre Lepechinia de la famille des Lamiaceae par Carl Ludwig von Willdenow (1765-1812).
 Le professeur Mikhaïl Popov donne son nom en 1953 au genre Lepechiniella de la famille des Boraginaceae.</t>
